--- a/LIS/Input/inputData_LIS4.xlsx
+++ b/LIS/Input/inputData_LIS4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Ric\OneDrive\Desktop\es-miles-calc-scraper\LIS\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0291DA01-577B-4CF2-A16B-96A5C00CF67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F48F328-AEBA-417C-9AE4-4CB1C1769532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FDA978CD-81C9-4B47-8D3A-830A63FBCA0E}"/>
   </bookViews>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5015CE-725D-4110-91C7-7DCEB0AF3D6A}">
   <dimension ref="A1:F577"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A548" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
